--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Questions" sheetId="3" r:id="rId2"/>
-    <sheet name="Student List" sheetId="4" r:id="rId3"/>
+    <sheet name="BlackWhite List" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>sharing folder</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>White/Black List</t>
-  </si>
-  <si>
-    <t>All Students</t>
   </si>
   <si>
     <t>Timing Type</t>
@@ -192,12 +190,39 @@
   </si>
   <si>
     <t>net.png</t>
+  </si>
+  <si>
+    <t>Black List</t>
+  </si>
+  <si>
+    <t>Course ID</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>IT100</t>
+  </si>
+  <si>
+    <t>Computer Skills</t>
+  </si>
+  <si>
+    <t>Fall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -349,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -379,9 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,17 +444,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -528,6 +559,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -563,6 +611,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -739,20 +804,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -775,49 +840,89 @@
         <v>Each student will get different order of questions randomly.This option is good to avoid cheating.</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="str">
+        <f>IF(B3 = "All Students", "Any student is allowed to join the exam",  IF(B3 ="White List", "Only Students who has listed in 'BlackWhite List' Sheet is allowed to join exam. Otherwise they will be rejected.", "Only Students who has listed in 'BlackWhite List' Sheet is NOT allowed to join exam. Thus, any other student can join the exam.") )</f>
+        <v>Only Students who has listed in 'BlackWhite List' Sheet is NOT allowed to join exam. Thus, any other student can join the exam.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="82.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="str">
-        <f>IF(B3 = "All Students", "Any student is allowed to join the exam",  IF(B3 ="White List", "Only Students who has listed in 'Student List' Sheet is allowed to join exam. Otherwise they will be rejected.", "Only Students who has listed in 'Student List' Sheet is NOT allowed to join exam. Thus, any other student can join the exam.") )</f>
-        <v>Any student is allowed to join the exam</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="82.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>IF(B4 = "Exam Level", "Specify the total time to be the time limit of the whole exam", "Secify time limit of each question in the [Questions] sheet" &amp; ". This mode will not allow student to review his answer after he moves to the next question. If the question time is expiered then the application will move the student into next question automatically.")</f>
         <v>Specify the total time to be the time limit of the whole exam</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
-        <v>45</v>
-      </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="B6" s="30">
         <v>123</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="31">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <protectedRanges>
@@ -853,278 +958,278 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.88671875" style="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="9.140625" style="22" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" style="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="23" collapsed="1"/>
-    <col min="12" max="12" width="10" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="9.109375" style="21" collapsed="1"/>
+    <col min="10" max="10" width="12.88671875" style="21" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.109375" style="22" collapsed="1"/>
+    <col min="12" max="12" width="10" style="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="D3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="L3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="C4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20" t="s">
+      <c r="D5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18">
+        <v>2</v>
+      </c>
+      <c r="L5" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K6" s="18">
+        <v>2</v>
+      </c>
+      <c r="L6" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18">
+        <v>3</v>
+      </c>
+      <c r="L7" s="18">
         <v>1</v>
       </c>
-      <c r="L3" s="19">
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="E8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18">
         <v>1</v>
       </c>
-      <c r="L4" s="19">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
-        <v>3</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19">
-        <v>2</v>
-      </c>
-      <c r="L5" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
-        <v>4</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="19">
-        <v>2</v>
-      </c>
-      <c r="L6" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
-        <v>5</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19">
-        <v>3</v>
-      </c>
-      <c r="L7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
-        <v>6</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19">
-        <v>1</v>
-      </c>
-      <c r="L8" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-      <c r="L9" s="19">
+      <c r="L9" s="18">
         <v>3</v>
       </c>
     </row>
@@ -1157,46 +1262,58 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="25" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.109375" style="24" collapsed="1"/>
+    <col min="2" max="2" width="16.33203125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="25" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -10,14 +10,13 @@
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Questions" sheetId="3" r:id="rId2"/>
     <sheet name="BlackWhite List" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>sharing folder</t>
   </si>
@@ -192,9 +191,6 @@
     <t>net.png</t>
   </si>
   <si>
-    <t>Black List</t>
-  </si>
-  <si>
     <t>Course ID</t>
   </si>
   <si>
@@ -217,6 +213,15 @@
   </si>
   <si>
     <t>Fall</t>
+  </si>
+  <si>
+    <t>All Students</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>2nd MidTerm</t>
   </si>
 </sst>
 </file>
@@ -456,14 +461,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -804,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,11 +850,11 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C3" s="6" t="str">
         <f>IF(B3 = "All Students", "Any student is allowed to join the exam",  IF(B3 ="White List", "Only Students who has listed in 'BlackWhite List' Sheet is allowed to join exam. Otherwise they will be rejected.", "Only Students who has listed in 'BlackWhite List' Sheet is NOT allowed to join exam. Thus, any other student can join the exam.") )</f>
-        <v>Only Students who has listed in 'BlackWhite List' Sheet is NOT allowed to join exam. Thus, any other student can join the exam.</v>
+        <v>Any student is allowed to join the exam</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="82.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -879,49 +884,57 @@
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>123</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="31">
+        <v>59</v>
+      </c>
+      <c r="B9" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="31">
+        <v>60</v>
+      </c>
+      <c r="B10" s="30">
         <v>2016</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -971,19 +984,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -1304,16 +1317,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>